--- a/biology/Botanique/Pulmonaria/Pulmonaria.xlsx
+++ b/biology/Botanique/Pulmonaria/Pulmonaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pulmonaria est un genre de plantes de la famille des Boraginaceae.
 Ces plantes sont des espèces herbacées vivaces à grandes feuilles basales et à feuilles caulinaires plus petites. Les feuilles continuent à grandir après la floraison. Dans plusieurs espèces, elles sont maculées de blanc. L'ensemble de la plante est velu, à poils rudes à soyeux.
@@ -514,10 +526,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces espèces sont souvent appelées « Pulmonaires ». Elles doivent leur nom au fait que les taches éparses sur les feuilles évoquent les alvéoles du poumon (à l'exception de Pulmonaria obscura qui n'a pas de taches). La racine de ces espèces était censée guérir les maladies du poumon (Végèce donnait le nom de pulmonaria radicula à l'une d'entre elles) en vertu de la théorie des signatures[1].
-Selon la légende, les traces blanches des feuilles sont les gouttes de lait que la vierge Marie laissa tomber en allaitant son fils Jésus lors de la fuite en Égypte[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces espèces sont souvent appelées « Pulmonaires ». Elles doivent leur nom au fait que les taches éparses sur les feuilles évoquent les alvéoles du poumon (à l'exception de Pulmonaria obscura qui n'a pas de taches). La racine de ces espèces était censée guérir les maladies du poumon (Végèce donnait le nom de pulmonaria radicula à l'une d'entre elles) en vertu de la théorie des signatures.
+Selon la légende, les traces blanches des feuilles sont les gouttes de lait que la vierge Marie laissa tomber en allaitant son fils Jésus lors de la fuite en Égypte.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Germplasm Resources Information Network[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Germplasm Resources Information Network
 Pulmonaria affinis Jord. - Pulmonaire semblable
 Pulmonaria angustifolia L.
 Pulmonaria dacica Simonk.
@@ -594,8 +610,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Calendrier républicain
-Dans le calendrier républicain, la Pulmonaire était le nom attribué au 19e jour du mois de pluviôse[4].
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain, la Pulmonaire était le nom attribué au 19e jour du mois de pluviôse.
 </t>
         </is>
       </c>
@@ -624,9 +645,11 @@
           <t>Collection vivante</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pépinière-jardin botanique du Beau Pays dans le Pas-de-Calais détient une collection de Pulmonaires horticoles qui compte environ 85 espèces et cultivars, et qui est labellisée « Collection nationale » par le Conservatoire des collections végétales spécialisées[5] depuis 2016[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pépinière-jardin botanique du Beau Pays dans le Pas-de-Calais détient une collection de Pulmonaires horticoles qui compte environ 85 espèces et cultivars, et qui est labellisée « Collection nationale » par le Conservatoire des collections végétales spécialisées depuis 2016.
 </t>
         </is>
       </c>
